--- a/src/main/resources/xlsx/sc/sc_public_sign.xlsx
+++ b/src/main/resources/xlsx/sc/sc_public_sign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\干部选拔\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D02EA7EE-7C5D-4068-A9E6-E1CE27003DC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="11715" windowHeight="8895"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="11715" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
@@ -26,10 +27,6 @@
   </si>
   <si>
     <t>签发：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北 京 师 范 大 学 发 文 稿 纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,11 +130,15 @@
     <t xml:space="preserve">           downloadTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>school发 文 稿 纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -340,14 +341,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -360,24 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -733,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -749,22 +750,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -776,10 +777,10 @@
     </row>
     <row r="4" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -791,51 +792,51 @@
     </row>
     <row r="5" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -847,7 +848,7 @@
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -859,7 +860,7 @@
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -871,7 +872,7 @@
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
